--- a/munkanaplo.xlsx
+++ b/munkanaplo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webterv\webterv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28A6A4C-8448-4944-BDE9-0E9CF97A0109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC01B009-6F48-4487-A63B-0A20E92EA4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{FCFC8600-20BF-48D6-97AB-F923E8595D04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCFC8600-20BF-48D6-97AB-F923E8595D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
   <si>
     <t>Munkanapló</t>
   </si>
@@ -162,13 +162,76 @@
   </si>
   <si>
     <t>oldal témájának kigondolása, header, footer létrehozása</t>
+  </si>
+  <si>
+    <t>még nem kezdtük el a projekt folytatását</t>
+  </si>
+  <si>
+    <t>nem volt kedvünk hamarabb elkezdeni, illetve más teendők miatt kicsit későbbre tolódott a projekt folytatása, de a lényeg, hoyg elkezdtük</t>
+  </si>
+  <si>
+    <t>ötletek  szerzése, okt.inf.szte-en található tananyagok átolvasása, tanulmányozása</t>
+  </si>
+  <si>
+    <t>április 19.</t>
+  </si>
+  <si>
+    <t>kicsit sok volt a tanagyag, még úgyis, hogy már egyszer minimum el kellett olvasni a fejezeteket a heti tesztekhez</t>
+  </si>
+  <si>
+    <t>xammp letöltése, php "beállítása"</t>
+  </si>
+  <si>
+    <t>a xammp letöltése még rendben volt, csak tutorialok hiányában nehezen találtuk meg, hogy hova kell a fájlokat tartalmazó mappát helyezni, hogy tudjuk futtatni a php programokat (a xammp/htdocs-ba kellett végül)</t>
+  </si>
+  <si>
+    <t>április 20.-április 21.</t>
+  </si>
+  <si>
+    <t>április 18-20.</t>
+  </si>
+  <si>
+    <t>március 25.-április 19.</t>
+  </si>
+  <si>
+    <t>nem tudtam megoldani a profilkép feltöltést [[csak az utolsó pillanatban]]</t>
+  </si>
+  <si>
+    <t>április 21.</t>
+  </si>
+  <si>
+    <t>senki</t>
+  </si>
+  <si>
+    <t>sajnos nem jutott rá idő</t>
+  </si>
+  <si>
+    <t>kosár funkció</t>
+  </si>
+  <si>
+    <t>regisztráció/bejelentkezés/profil funkció</t>
+  </si>
+  <si>
+    <t>chat, gyakvezi funkció</t>
+  </si>
+  <si>
+    <t>admin bejelentkezés funkció</t>
+  </si>
+  <si>
+    <t>admin funkciók</t>
+  </si>
+  <si>
+    <t>2. mérföldkő beadása</t>
+  </si>
+  <si>
+    <t>korábbi rendelés funkció</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +264,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -227,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -274,12 +344,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,6 +382,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -660,21 +751,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76A1973-9EC9-4B67-BA28-BC796EFB12D5}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="54.7265625" customWidth="1"/>
-    <col min="4" max="4" width="114.26953125" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" customWidth="1"/>
+    <col min="4" max="4" width="114.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -682,7 +773,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -696,7 +787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -710,7 +801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -724,7 +815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -738,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -752,7 +843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -766,7 +857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -780,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -794,7 +885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -808,7 +899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -822,7 +913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -836,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -850,7 +941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -864,7 +955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -878,42 +969,163 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+    <row r="17" spans="1:4" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>NOT(ISERROR(SEARCH("(todo)",A1)))</formula>
@@ -925,5 +1137,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/munkanaplo.xlsx
+++ b/munkanaplo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webterv\webterv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webterv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC01B009-6F48-4487-A63B-0A20E92EA4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C33EFE9-E3D2-4A09-8A09-4D4FCCE4A534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCFC8600-20BF-48D6-97AB-F923E8595D04}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{FCFC8600-20BF-48D6-97AB-F923E8595D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>Munkanapló</t>
   </si>
@@ -167,9 +167,6 @@
     <t>még nem kezdtük el a projekt folytatását</t>
   </si>
   <si>
-    <t>nem volt kedvünk hamarabb elkezdeni, illetve más teendők miatt kicsit későbbre tolódott a projekt folytatása, de a lényeg, hoyg elkezdtük</t>
-  </si>
-  <si>
     <t>ötletek  szerzése, okt.inf.szte-en található tananyagok átolvasása, tanulmányozása</t>
   </si>
   <si>
@@ -200,31 +197,34 @@
     <t>április 21.</t>
   </si>
   <si>
-    <t>senki</t>
-  </si>
-  <si>
-    <t>sajnos nem jutott rá idő</t>
-  </si>
-  <si>
-    <t>kosár funkció</t>
-  </si>
-  <si>
     <t>regisztráció/bejelentkezés/profil funkció</t>
   </si>
   <si>
-    <t>chat, gyakvezi funkció</t>
-  </si>
-  <si>
     <t>admin bejelentkezés funkció</t>
   </si>
   <si>
-    <t>admin funkciók</t>
-  </si>
-  <si>
     <t>2. mérföldkő beadása</t>
   </si>
   <si>
-    <t>korábbi rendelés funkció</t>
+    <t>admin: gofri hozzáadása, eltávolítása a menüből, feltétek hozzáadása az új gofrikhoz</t>
+  </si>
+  <si>
+    <t>menüben gofri kiválasztása, belerakása kosárba, gofrik eltávolítása kosárból</t>
+  </si>
+  <si>
+    <t>gofrik megrendelése</t>
+  </si>
+  <si>
+    <t>gofrik újrarendelése profil oldalról</t>
+  </si>
+  <si>
+    <t>alert megtervezése</t>
+  </si>
+  <si>
+    <t>footer, header különszedése, eredeti oldalakba includeolása</t>
+  </si>
+  <si>
+    <t>nem volt kedvünk hamarabb elkezdeni, illetve más teendők miatt kicsit későbbre tolódott a projekt folytatása, de a lényeg, hogy elkezdtük</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,12 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,8 +386,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,29 +754,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76A1973-9EC9-4B67-BA28-BC796EFB12D5}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" customWidth="1"/>
-    <col min="4" max="4" width="114.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.7265625" customWidth="1"/>
+    <col min="4" max="4" width="114.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -787,7 +790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -801,7 +804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -815,7 +818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -829,7 +832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -843,7 +846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -857,7 +860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -871,7 +874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -885,7 +888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -899,7 +902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -913,7 +916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -927,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -941,7 +944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -955,7 +958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -969,157 +972,173 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="11" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>55</v>
       </c>
+      <c r="D28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/munkanaplo.xlsx
+++ b/munkanaplo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webterv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webterv\webterv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C33EFE9-E3D2-4A09-8A09-4D4FCCE4A534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1965FF5-A388-4AC2-A8BC-FD853AB3FBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{FCFC8600-20BF-48D6-97AB-F923E8595D04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCFC8600-20BF-48D6-97AB-F923E8595D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <t>Munkanapló</t>
   </si>
@@ -182,27 +182,15 @@
     <t>a xammp letöltése még rendben volt, csak tutorialok hiányában nehezen találtuk meg, hogy hova kell a fájlokat tartalmazó mappát helyezni, hogy tudjuk futtatni a php programokat (a xammp/htdocs-ba kellett végül)</t>
   </si>
   <si>
-    <t>április 20.-április 21.</t>
-  </si>
-  <si>
     <t>április 18-20.</t>
   </si>
   <si>
     <t>március 25.-április 19.</t>
   </si>
   <si>
-    <t>nem tudtam megoldani a profilkép feltöltést [[csak az utolsó pillanatban]]</t>
-  </si>
-  <si>
     <t>április 21.</t>
   </si>
   <si>
-    <t>regisztráció/bejelentkezés/profil funkció</t>
-  </si>
-  <si>
-    <t>admin bejelentkezés funkció</t>
-  </si>
-  <si>
     <t>2. mérföldkő beadása</t>
   </si>
   <si>
@@ -225,6 +213,33 @@
   </si>
   <si>
     <t>nem volt kedvünk hamarabb elkezdeni, illetve más teendők miatt kicsit későbbre tolódott a projekt folytatása, de a lényeg, hogy elkezdtük</t>
+  </si>
+  <si>
+    <t>profil oldal adatok mentése</t>
+  </si>
+  <si>
+    <t>admin oldalba bejelentkezés</t>
+  </si>
+  <si>
+    <t>április 22.</t>
+  </si>
+  <si>
+    <t>regisztráció</t>
+  </si>
+  <si>
+    <t>április 20.-április 22.</t>
+  </si>
+  <si>
+    <t>április 21-22.</t>
+  </si>
+  <si>
+    <t>bejelentkezés</t>
+  </si>
+  <si>
+    <t>alert elhelyezése az index.php-ra</t>
+  </si>
+  <si>
+    <t>nem sikerült a regisztrációs hibákat az oldalon jelezni, vagyis meg van oldva, de egy üres oldalra írja ki (a singup.php-ra)</t>
   </si>
 </sst>
 </file>
@@ -386,17 +401,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,29 +769,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76A1973-9EC9-4B67-BA28-BC796EFB12D5}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="54.7265625" customWidth="1"/>
-    <col min="4" max="4" width="114.26953125" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" customWidth="1"/>
+    <col min="4" max="4" width="114.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -790,7 +805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -804,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -818,7 +833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -832,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -846,7 +861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -860,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -874,7 +889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -888,7 +903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -902,7 +917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -916,7 +931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -930,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -944,7 +959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -958,7 +973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -972,7 +987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -986,159 +1001,201 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="11" t="s">
+    <row r="30" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="12"/>
+      <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
